--- a/Excel_profile_templates/Profile Template - CC Organization.xlsx
+++ b/Excel_profile_templates/Profile Template - CC Organization.xlsx
@@ -14,22 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="177">
   <si>
-    <t>Select</t>
-  </si>
-  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Not Used</t>
   </si>
   <si>
     <t>Card.</t>
@@ -64,6 +49,9 @@
     <t>0..1</t>
   </si>
   <si>
+    <t>Select</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -85,6 +73,18 @@
     <t>Uri</t>
   </si>
   <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -95,7 +95,7 @@
   </si>
   <si>
     <t>Language of the resource content
-Binding (extensible): A human language. ( http://hl7.org/fhir/stu3/valueset-languages.html )</t>
+Binding (extensible): A human language. [Common Languages](http://hl7.org/fhir/stu3/valueset-languages.html)</t>
   </si>
   <si>
     <t>- text</t>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>usual : official : temp : secondary (If known)
-Binding (required): Identifies the purpose for this identifier, if known . ( http://hl7.org/fhir/stu3/valueset-identifier-use.html )</t>
+Binding (required): Identifies the purpose for this identifier, if known. [IdentifierUse](http://hl7.org/fhir/stu3/valueset-identifier-use.html)</t>
   </si>
   <si>
     <t>- - type</t>
@@ -176,7 +176,7 @@
   </si>
   <si>
     <t>Description of identifier
-Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. ( http://hl7.org/fhir/stu3/valueset-identifier-type.html )</t>
+Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. [Identifier Type Codes](http://hl7.org/fhir/stu3/valueset-identifier-type.html)</t>
   </si>
   <si>
     <t>- - system</t>
@@ -186,7 +186,7 @@
   </si>
   <si>
     <t>The namespace for the identifier value
-Fixed Value: https://fhir.nhs.uk/Id/ods-organization-code</t>
+&lt;font color='red'&gt;The value attribute of the profile element MUST contain the value 'https://fhir.nhs.uk/Id/ods-organization-code'&lt;/font&gt;</t>
   </si>
   <si>
     <t>- - value</t>
@@ -222,7 +222,7 @@
   </si>
   <si>
     <t>The namespace for the identifier value
-Fixed Value: https://fhir.nhs.uk/Id/ods-site-code</t>
+&lt;font color='red'&gt;The value attribute of the profile element MUST contain the value 'https://fhir.nhs.uk/Id/ods-site-code'&lt;/font&gt;</t>
   </si>
   <si>
     <t>- active</t>
@@ -239,7 +239,7 @@
   </si>
   <si>
     <t>Kind of organization
-Binding (example): Used to categorize the organization ( http://hl7.org/fhir/stu3/valueset-organization-type.html )</t>
+Binding (example): Used to categorize the organization [OrganizationType](http://hl7.org/fhir/stu3/valueset-organization-type.html)</t>
   </si>
   <si>
     <t>- - coding</t>
@@ -311,14 +311,14 @@
   </si>
   <si>
     <t>phone : fax : email : pager : url : sms : other
-Binding (required): Telecommunications form for contact point ( http://hl7.org/fhir/stu3/valueset-contact-point-system.html )</t>
+Binding (required): Telecommunications form for contact point [ContactPointSystem](http://hl7.org/fhir/stu3/valueset-contact-point-system.html)</t>
   </si>
   <si>
     <t>The actual contact point details</t>
   </si>
   <si>
     <t>home : work : temp : old : mobile - purpose of this contact point
-Binding (required): Use of contact point ( http://hl7.org/fhir/stu3/valueset-contact-point-use.html )</t>
+Binding (required): Use of contact point [ContactPointUse](http://hl7.org/fhir/stu3/valueset-contact-point-use.html)</t>
   </si>
   <si>
     <t>- - rank</t>
@@ -360,11 +360,11 @@
   </si>
   <si>
     <t>home : work : temp : old - purpose of this address
-Binding (required): The use of an address ( http://hl7.org/fhir/stu3/valueset-address-use.html )</t>
+Binding (required): The use of an address [AddressUse](http://hl7.org/fhir/stu3/valueset-address-use.html)</t>
   </si>
   <si>
     <t>postal : physical : both
-Binding (required): The type of an address (physical / postal) ( http://hl7.org/fhir/stu3/valueset-address-type.html )</t>
+Binding (required): The type of an address (physical / postal) [AddressType](http://hl7.org/fhir/stu3/valueset-address-type.html)</t>
   </si>
   <si>
     <t>Text representation of the address</t>
@@ -455,7 +455,7 @@
   </si>
   <si>
     <t>The type of contact
-Binding (extensible): The purpose for which you would contact a contact party (http://hl7.org/fhir/stu3/valueset-contactentity-type.html )</t>
+Binding (extensible): The purpose for which you would contact a contact party [ContactEntityType](http://hl7.org/fhir/stu3/valueset-contactentity-type.html)</t>
   </si>
   <si>
     <t>- - - coding</t>
@@ -492,7 +492,7 @@
   </si>
   <si>
     <t>usual : official : temp : nickname : anonymous : old : maiden
-Binding (required): The use of a human name ( http://hl7.org/fhir/stu3/valueset-name-use.html )</t>
+Binding (required): The use of a human name [NameUse](http://hl7.org/fhir/stu3/valueset-name-use.html)</t>
   </si>
   <si>
     <t>Text representation of the full name</t>
@@ -592,7 +592,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
       <sz val="8.0"/>
@@ -632,13 +631,7 @@
       <color rgb="FF005EB8"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="8.0"/>
-      <color rgb="FF474747"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
-    </font>
+    <font/>
     <font>
       <u/>
       <sz val="8.0"/>
@@ -650,6 +643,12 @@
       <sz val="8.0"/>
       <color rgb="FF474747"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.0"/>
+      <color rgb="FF474747"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
@@ -689,9 +688,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -700,14 +699,14 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -719,7 +718,7 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -728,7 +727,7 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -736,10 +735,10 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -784,1617 +783,1617 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+    <row r="4">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13" t="str">
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-MainLocation-1","Extension-CareConnect-MainLocation-1")</f>
         <v>Extension-CareConnect-MainLocation-1</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13" t="str">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/StructureDefinition/organization-period","organization-period")</f>
         <v>organization-period</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>0</v>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D19" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="10" t="s">
-        <v>0</v>
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D20" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="C24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>0</v>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D27" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="10" t="s">
-        <v>0</v>
+      <c r="A28" s="8"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D28" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="B34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="B35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="B36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="B38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="B41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="B42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="B43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="B44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="B45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="B46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="11" t="s">
+      <c r="B47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="11" t="s">
+      <c r="C48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="11" t="s">
+      <c r="B49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="11" t="s">
+      <c r="B50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="11" t="s">
+      <c r="B51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="C52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="11" t="s">
+      <c r="B53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="11" t="s">
+      <c r="B54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="11" t="s">
+      <c r="B55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="11" t="s">
+      <c r="B56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="11" t="s">
+      <c r="B57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="11" t="s">
+      <c r="B58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="11" t="s">
+      <c r="B59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="11" t="s">
+      <c r="B60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>0</v>
+      <c r="B61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D61" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="9"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="10" t="s">
-        <v>0</v>
+      <c r="A62" s="8"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D62" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="11" t="s">
+      <c r="B63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="11" t="s">
+      <c r="B64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="11" t="s">
+      <c r="B65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="11" t="s">
+      <c r="C66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="11" t="s">
+      <c r="C67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="11" t="s">
+      <c r="B68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="11" t="s">
+      <c r="C69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="8" t="s">
+      <c r="B70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="11" t="s">
+      <c r="B71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="11" t="s">
+      <c r="B72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="11" t="s">
+      <c r="B73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="11" t="s">
+      <c r="B74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="11" t="s">
+      <c r="B75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="11" t="s">
+      <c r="B76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="11" t="s">
+      <c r="B77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="11" t="s">
+      <c r="B78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="11" t="s">
+      <c r="C79" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="11" t="s">
+      <c r="C80" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="11" t="s">
+      <c r="C81" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="11" t="s">
+      <c r="C82" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="11" t="s">
+      <c r="B83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="11" t="s">
+      <c r="B84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="B85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="11" t="s">
+      <c r="C86" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="11" t="s">
+      <c r="B87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="11" t="s">
+      <c r="B88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="11" t="s">
+      <c r="B89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="11" t="s">
+      <c r="B90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="11" t="s">
+      <c r="B91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="11" t="s">
+      <c r="B92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="11" t="s">
+      <c r="B93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="11" t="s">
+      <c r="B94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="11" t="s">
+      <c r="B95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="11" t="s">
+      <c r="B96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E96" s="14" t="s">
@@ -2402,236 +2401,236 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="11" t="s">
+      <c r="B97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="11" t="s">
+      <c r="C98" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="11" t="s">
+      <c r="B99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="11" t="s">
+      <c r="B100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="11" t="s">
+      <c r="B101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="11" t="s">
+      <c r="B102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="11" t="s">
+      <c r="B103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="11" t="s">
+      <c r="B104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" s="11" t="s">
+      <c r="B105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="11" t="s">
+      <c r="B106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>0</v>
+      <c r="C107" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D107" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="9"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="10" t="s">
-        <v>0</v>
+      <c r="A108" s="8"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D108" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Endpoint","Endpoint")</f>
         <v>Endpoint</v>
       </c>
-      <c r="E108" s="8"/>
+      <c r="E108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" s="11" t="s">
+      <c r="B109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="11" t="s">
+      <c r="B110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="7" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8910,107 +8909,102 @@
     <hyperlink r:id="rId3" location="Meta" ref="D4"/>
     <hyperlink r:id="rId4" location="uri" ref="D5"/>
     <hyperlink r:id="rId5" location="code" ref="D6"/>
-    <hyperlink r:id="rId6" ref="E6"/>
-    <hyperlink r:id="rId7" location="Narrative" ref="D7"/>
-    <hyperlink r:id="rId8" ref="D8"/>
-    <hyperlink r:id="rId9" location="Extension" ref="D11"/>
-    <hyperlink r:id="rId10" location="identifier" ref="D12"/>
-    <hyperlink r:id="rId11" location="identifier" ref="D13"/>
-    <hyperlink r:id="rId12" location="code" ref="D14"/>
-    <hyperlink r:id="rId13" location="codeableconcept" ref="D15"/>
-    <hyperlink r:id="rId14" ref="E15"/>
-    <hyperlink r:id="rId15" location="uri" ref="D16"/>
-    <hyperlink r:id="rId16" location="string" ref="D17"/>
-    <hyperlink r:id="rId17" location="period" ref="D18"/>
-    <hyperlink r:id="rId18" location="identifier" ref="D21"/>
-    <hyperlink r:id="rId19" location="code" ref="D22"/>
-    <hyperlink r:id="rId20" location="codeableconcept" ref="D23"/>
-    <hyperlink r:id="rId21" ref="E23"/>
-    <hyperlink r:id="rId22" location="uri" ref="D24"/>
-    <hyperlink r:id="rId23" location="string" ref="D25"/>
-    <hyperlink r:id="rId24" location="period" ref="D26"/>
-    <hyperlink r:id="rId25" location="boolean" ref="D29"/>
-    <hyperlink r:id="rId26" location="codeableconcept" ref="D30"/>
-    <hyperlink r:id="rId27" ref="E30"/>
-    <hyperlink r:id="rId28" location="coding" ref="D31"/>
-    <hyperlink r:id="rId29" location="uri" ref="D32"/>
-    <hyperlink r:id="rId30" location="string" ref="D33"/>
-    <hyperlink r:id="rId31" location="code" ref="D34"/>
-    <hyperlink r:id="rId32" location="string" ref="D35"/>
-    <hyperlink r:id="rId33" location="boolean" ref="D36"/>
-    <hyperlink r:id="rId34" location="string" ref="D37"/>
-    <hyperlink r:id="rId35" location="string" ref="D38"/>
-    <hyperlink r:id="rId36" location="string" ref="D39"/>
-    <hyperlink r:id="rId37" location="contactpoint" ref="D40"/>
-    <hyperlink r:id="rId38" location="code" ref="D41"/>
-    <hyperlink r:id="rId39" location="string" ref="D42"/>
-    <hyperlink r:id="rId40" location="code" ref="D43"/>
-    <hyperlink r:id="rId41" location="positiveint" ref="D44"/>
-    <hyperlink r:id="rId42" location="period" ref="D45"/>
-    <hyperlink r:id="rId43" location="datetime" ref="D46"/>
-    <hyperlink r:id="rId44" location="datetime" ref="D47"/>
-    <hyperlink r:id="rId45" location="address" ref="D48"/>
-    <hyperlink r:id="rId46" location="code" ref="D49"/>
-    <hyperlink r:id="rId47" location="code" ref="D50"/>
-    <hyperlink r:id="rId48" location="string" ref="D51"/>
-    <hyperlink r:id="rId49" location="string" ref="D52"/>
-    <hyperlink r:id="rId50" location="string" ref="D53"/>
-    <hyperlink r:id="rId51" location="string" ref="D54"/>
-    <hyperlink r:id="rId52" location="string" ref="D55"/>
-    <hyperlink r:id="rId53" location="string" ref="D56"/>
-    <hyperlink r:id="rId54" location="string" ref="D57"/>
-    <hyperlink r:id="rId55" location="period" ref="D58"/>
-    <hyperlink r:id="rId56" location="datetime" ref="D59"/>
-    <hyperlink r:id="rId57" location="datetime" ref="D60"/>
-    <hyperlink r:id="rId58" location="string" ref="D63"/>
-    <hyperlink r:id="rId59" location="identifier" ref="D64"/>
-    <hyperlink r:id="rId60" location="string" ref="D65"/>
-    <hyperlink r:id="rId61" ref="D66"/>
-    <hyperlink r:id="rId62" location="Extension" ref="D67"/>
-    <hyperlink r:id="rId63" location="codeableconcept" ref="D68"/>
-    <hyperlink r:id="rId64" ref="E68"/>
-    <hyperlink r:id="rId65" location="coding" ref="D69"/>
-    <hyperlink r:id="rId66" location="uri" ref="D70"/>
-    <hyperlink r:id="rId67" location="string" ref="D71"/>
-    <hyperlink r:id="rId68" location="code" ref="D72"/>
-    <hyperlink r:id="rId69" location="string" ref="D73"/>
-    <hyperlink r:id="rId70" location="boolean" ref="D74"/>
-    <hyperlink r:id="rId71" location="string" ref="D75"/>
-    <hyperlink r:id="rId72" location="humanname" ref="D76"/>
-    <hyperlink r:id="rId73" location="code" ref="D77"/>
-    <hyperlink r:id="rId74" location="string" ref="D78"/>
-    <hyperlink r:id="rId75" location="string" ref="D79"/>
-    <hyperlink r:id="rId76" location="string" ref="D80"/>
-    <hyperlink r:id="rId77" location="string" ref="D81"/>
-    <hyperlink r:id="rId78" location="string" ref="D82"/>
-    <hyperlink r:id="rId79" location="period" ref="D83"/>
-    <hyperlink r:id="rId80" location="datetime" ref="D84"/>
-    <hyperlink r:id="rId81" location="datetime" ref="D85"/>
-    <hyperlink r:id="rId82" location="contactpoint" ref="D86"/>
-    <hyperlink r:id="rId83" location="code" ref="D87"/>
-    <hyperlink r:id="rId84" location="string" ref="D88"/>
-    <hyperlink r:id="rId85" location="code" ref="D89"/>
-    <hyperlink r:id="rId86" location="positiveint" ref="D90"/>
-    <hyperlink r:id="rId87" location="period" ref="D91"/>
-    <hyperlink r:id="rId88" location="datetime" ref="D92"/>
-    <hyperlink r:id="rId89" location="datetime" ref="D93"/>
-    <hyperlink r:id="rId90" location="address" ref="D94"/>
-    <hyperlink r:id="rId91" location="code" ref="D95"/>
-    <hyperlink r:id="rId92" location="code" ref="D96"/>
-    <hyperlink r:id="rId93" location="string" ref="D97"/>
-    <hyperlink r:id="rId94" location="string" ref="D98"/>
-    <hyperlink r:id="rId95" location="string" ref="D99"/>
-    <hyperlink r:id="rId96" location="string" ref="D100"/>
-    <hyperlink r:id="rId97" location="string" ref="D101"/>
-    <hyperlink r:id="rId98" location="string" ref="D102"/>
-    <hyperlink r:id="rId99" location="string" ref="D103"/>
-    <hyperlink r:id="rId100" location="period" ref="D104"/>
-    <hyperlink r:id="rId101" location="datetime" ref="D105"/>
-    <hyperlink r:id="rId102" location="datetime" ref="D106"/>
-    <hyperlink r:id="rId103" location="string" ref="D109"/>
-    <hyperlink r:id="rId104" location="identifier" ref="D110"/>
+    <hyperlink r:id="rId6" location="Narrative" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" location="Extension" ref="D11"/>
+    <hyperlink r:id="rId9" location="identifier" ref="D12"/>
+    <hyperlink r:id="rId10" location="identifier" ref="D13"/>
+    <hyperlink r:id="rId11" location="code" ref="D14"/>
+    <hyperlink r:id="rId12" location="codeableconcept" ref="D15"/>
+    <hyperlink r:id="rId13" location="uri" ref="D16"/>
+    <hyperlink r:id="rId14" location="string" ref="D17"/>
+    <hyperlink r:id="rId15" location="period" ref="D18"/>
+    <hyperlink r:id="rId16" location="identifier" ref="D21"/>
+    <hyperlink r:id="rId17" location="code" ref="D22"/>
+    <hyperlink r:id="rId18" location="codeableconcept" ref="D23"/>
+    <hyperlink r:id="rId19" location="uri" ref="D24"/>
+    <hyperlink r:id="rId20" location="string" ref="D25"/>
+    <hyperlink r:id="rId21" location="period" ref="D26"/>
+    <hyperlink r:id="rId22" location="boolean" ref="D29"/>
+    <hyperlink r:id="rId23" location="codeableconcept" ref="D30"/>
+    <hyperlink r:id="rId24" location="coding" ref="D31"/>
+    <hyperlink r:id="rId25" location="uri" ref="D32"/>
+    <hyperlink r:id="rId26" location="string" ref="D33"/>
+    <hyperlink r:id="rId27" location="code" ref="D34"/>
+    <hyperlink r:id="rId28" location="string" ref="D35"/>
+    <hyperlink r:id="rId29" location="boolean" ref="D36"/>
+    <hyperlink r:id="rId30" location="string" ref="D37"/>
+    <hyperlink r:id="rId31" location="string" ref="D38"/>
+    <hyperlink r:id="rId32" location="string" ref="D39"/>
+    <hyperlink r:id="rId33" location="contactpoint" ref="D40"/>
+    <hyperlink r:id="rId34" location="code" ref="D41"/>
+    <hyperlink r:id="rId35" location="string" ref="D42"/>
+    <hyperlink r:id="rId36" location="code" ref="D43"/>
+    <hyperlink r:id="rId37" location="positiveint" ref="D44"/>
+    <hyperlink r:id="rId38" location="period" ref="D45"/>
+    <hyperlink r:id="rId39" location="datetime" ref="D46"/>
+    <hyperlink r:id="rId40" location="datetime" ref="D47"/>
+    <hyperlink r:id="rId41" location="address" ref="D48"/>
+    <hyperlink r:id="rId42" location="code" ref="D49"/>
+    <hyperlink r:id="rId43" location="code" ref="D50"/>
+    <hyperlink r:id="rId44" location="string" ref="D51"/>
+    <hyperlink r:id="rId45" location="string" ref="D52"/>
+    <hyperlink r:id="rId46" location="string" ref="D53"/>
+    <hyperlink r:id="rId47" location="string" ref="D54"/>
+    <hyperlink r:id="rId48" location="string" ref="D55"/>
+    <hyperlink r:id="rId49" location="string" ref="D56"/>
+    <hyperlink r:id="rId50" location="string" ref="D57"/>
+    <hyperlink r:id="rId51" location="period" ref="D58"/>
+    <hyperlink r:id="rId52" location="datetime" ref="D59"/>
+    <hyperlink r:id="rId53" location="datetime" ref="D60"/>
+    <hyperlink r:id="rId54" location="string" ref="D63"/>
+    <hyperlink r:id="rId55" location="identifier" ref="D64"/>
+    <hyperlink r:id="rId56" location="string" ref="D65"/>
+    <hyperlink r:id="rId57" ref="D66"/>
+    <hyperlink r:id="rId58" location="Extension" ref="D67"/>
+    <hyperlink r:id="rId59" location="codeableconcept" ref="D68"/>
+    <hyperlink r:id="rId60" location="coding" ref="D69"/>
+    <hyperlink r:id="rId61" location="uri" ref="D70"/>
+    <hyperlink r:id="rId62" location="string" ref="D71"/>
+    <hyperlink r:id="rId63" location="code" ref="D72"/>
+    <hyperlink r:id="rId64" location="string" ref="D73"/>
+    <hyperlink r:id="rId65" location="boolean" ref="D74"/>
+    <hyperlink r:id="rId66" location="string" ref="D75"/>
+    <hyperlink r:id="rId67" location="humanname" ref="D76"/>
+    <hyperlink r:id="rId68" location="code" ref="D77"/>
+    <hyperlink r:id="rId69" location="string" ref="D78"/>
+    <hyperlink r:id="rId70" location="string" ref="D79"/>
+    <hyperlink r:id="rId71" location="string" ref="D80"/>
+    <hyperlink r:id="rId72" location="string" ref="D81"/>
+    <hyperlink r:id="rId73" location="string" ref="D82"/>
+    <hyperlink r:id="rId74" location="period" ref="D83"/>
+    <hyperlink r:id="rId75" location="datetime" ref="D84"/>
+    <hyperlink r:id="rId76" location="datetime" ref="D85"/>
+    <hyperlink r:id="rId77" location="contactpoint" ref="D86"/>
+    <hyperlink r:id="rId78" location="code" ref="D87"/>
+    <hyperlink r:id="rId79" location="string" ref="D88"/>
+    <hyperlink r:id="rId80" location="code" ref="D89"/>
+    <hyperlink r:id="rId81" location="positiveint" ref="D90"/>
+    <hyperlink r:id="rId82" location="period" ref="D91"/>
+    <hyperlink r:id="rId83" location="datetime" ref="D92"/>
+    <hyperlink r:id="rId84" location="datetime" ref="D93"/>
+    <hyperlink r:id="rId85" location="address" ref="D94"/>
+    <hyperlink r:id="rId86" location="code" ref="D95"/>
+    <hyperlink r:id="rId87" location="code" ref="D96"/>
+    <hyperlink r:id="rId88" location="string" ref="D97"/>
+    <hyperlink r:id="rId89" location="string" ref="D98"/>
+    <hyperlink r:id="rId90" location="string" ref="D99"/>
+    <hyperlink r:id="rId91" location="string" ref="D100"/>
+    <hyperlink r:id="rId92" location="string" ref="D101"/>
+    <hyperlink r:id="rId93" location="string" ref="D102"/>
+    <hyperlink r:id="rId94" location="string" ref="D103"/>
+    <hyperlink r:id="rId95" location="period" ref="D104"/>
+    <hyperlink r:id="rId96" location="datetime" ref="D105"/>
+    <hyperlink r:id="rId97" location="datetime" ref="D106"/>
+    <hyperlink r:id="rId98" location="string" ref="D109"/>
+    <hyperlink r:id="rId99" location="identifier" ref="D110"/>
   </hyperlinks>
-  <drawing r:id="rId105"/>
+  <drawing r:id="rId100"/>
 </worksheet>
 </file>
 
@@ -9025,28 +9019,28 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
